--- a/Tutorial/My projects/My Portfolio/Weights.xlsx
+++ b/Tutorial/My projects/My Portfolio/Weights.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -803,27 +803,27 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ACIFORMULA</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>EXIMBANK</t>
+          <t>ACIFORMULA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>IFILISLMF1</t>
+          <t>EXIMBANK</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -833,17 +833,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AIBL1STIMF</t>
+          <t>IFILISLMF1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>EXIM1STMF</t>
+          <t>AIBL1STIMF</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -853,11 +853,31 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
+          <t>EXIM1STMF</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
           <t>RECKITTBEN</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>3</v>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>JMISMDL</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/My projects/My Portfolio/Weights.xlsx
+++ b/Tutorial/My projects/My Portfolio/Weights.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -613,47 +613,47 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HFL</t>
+          <t>NATLIFEINS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>UPGDCL</t>
+          <t>HFL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DELTALIFE</t>
+          <t>UPGDCL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BENGALWTL</t>
+          <t>DELTALIFE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>EHL</t>
+          <t>BENGALWTL</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -663,77 +663,77 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IBNSINA</t>
+          <t>EHL</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>WALTONHIL</t>
+          <t>IBNSINA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>UNIQUEHRL</t>
+          <t>WALTONHIL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>UNILEVERCL</t>
+          <t>UNIQUEHRL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>KDSALTD</t>
+          <t>UNILEVERCL</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>JHRML</t>
+          <t>KDSALTD</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ADNTEL</t>
+          <t>JHRML</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>ADNTEL</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -743,17 +743,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SIMTEX</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>APEXFOODS</t>
+          <t>SIMTEX</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -763,27 +763,27 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FORTUNE</t>
+          <t>APEXFOODS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>INDEXAGRO</t>
+          <t>FORTUNE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AMANFEED</t>
+          <t>INDEXAGRO</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -793,67 +793,67 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>SKICL</t>
+          <t>AMANFEED</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>SKICL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ACIFORMULA</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>EXIMBANK</t>
+          <t>ACIFORMULA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>IFILISLMF1</t>
+          <t>EXIMBANK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AIBL1STIMF</t>
+          <t>IFILISLMF1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>EXIM1STMF</t>
+          <t>AIBL1STIMF</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -863,7 +863,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RECKITTBEN</t>
+          <t>EXIM1STMF</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -873,11 +873,21 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
+          <t>RECKITTBEN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>JMISMDL</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>1</v>
+      <c r="B46" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
